--- a/backend/fms_core/static/submission_templates/Library_preparation_v3_9_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_preparation_v3_9_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E1CC1-3FB3-DB46-B2D8-2D5105321FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F512936-6068-7F47-9E7C-690D7574C357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13888,7 +13888,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>N6:N384 M5</xm:sqref>
+          <xm:sqref>N5:N384 M5:M6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{AD2886B9-3CA1-8E4F-BEF8-54C38D7B8D3A}">
           <x14:formula1>
